--- a/outputs-HGR-r202/f__Butyricicoccaceae.xlsx
+++ b/outputs-HGR-r202/f__Butyricicoccaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,29 +527,29 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3315.fa</t>
+          <t>even_MAG-GUT26272.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.404618983270638e-06</v>
+        <v>5.458280863404744e-07</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9938805814763771</v>
+        <v>0.9992636630963894</v>
       </c>
       <c r="D3" t="n">
-        <v>0.005790100540366975</v>
+        <v>0.0003284915395968282</v>
       </c>
       <c r="E3" t="n">
-        <v>3.640700598863478e-05</v>
+        <v>0.0004065149277193178</v>
       </c>
       <c r="F3" t="n">
-        <v>7.741429326908483e-08</v>
+        <v>7.673496815012755e-07</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0002914289439905459</v>
+        <v>1.725852665396043e-08</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9938805814763771</v>
+        <v>0.9992636630963894</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -565,36 +565,74 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT3315.fa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.404618983270638e-06</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9938805814763771</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.005790100540366975</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.640700598863478e-05</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.741429326908483e-08</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0002914289439905459</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9938805814763771</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>g__Agathobaculum</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>g__Agathobaculum</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT81714.fa</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>4.02608777311964e-07</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>0.9964764131359134</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.003356808508339486</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E5" t="n">
         <v>0.0001656702494370201</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F5" t="n">
         <v>7.009479745959462e-07</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G5" t="n">
         <v>4.549558367718013e-09</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H5" t="n">
         <v>0.9964764131359134</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>g__Agathobaculum</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>g__Agathobaculum</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>g__Agathobaculum</t>
         </is>

--- a/outputs-HGR-r202/f__Butyricicoccaceae.xlsx
+++ b/outputs-HGR-r202/f__Butyricicoccaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,11 @@
           <t>g__Agathobaculum</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>g__Agathobaculum</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -546,6 +556,11 @@
           <t>g__Agathobaculum</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>g__Agathobaculum</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -579,6 +594,11 @@
           <t>g__Agathobaculum</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>g__Agathobaculum</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -612,6 +632,11 @@
           <t>g__Agathobaculum</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>g__Agathobaculum</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -641,6 +666,11 @@
         <v>0.810584328760709</v>
       </c>
       <c r="I6" t="inlineStr">
+        <is>
+          <t>g__Butyricicoccus</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>g__Butyricicoccus</t>
         </is>

--- a/outputs-HGR-r202/f__Butyricicoccaceae.xlsx
+++ b/outputs-HGR-r202/f__Butyricicoccaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,29 +565,29 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3315.fa</t>
+          <t>even_MAG-GUT81714.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.404618983270638e-06</v>
+        <v>4.02608777311964e-07</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9938805814763771</v>
+        <v>0.9964764131359134</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005790100540366975</v>
+        <v>0.003356808508339486</v>
       </c>
       <c r="E4" t="n">
-        <v>3.640700598863478e-05</v>
+        <v>0.0001656702494370201</v>
       </c>
       <c r="F4" t="n">
-        <v>7.741429326908483e-08</v>
+        <v>7.009479745959462e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0002914289439905459</v>
+        <v>4.549558367718013e-09</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9938805814763771</v>
+        <v>0.9964764131359134</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -597,82 +597,6 @@
       <c r="J4" t="inlineStr">
         <is>
           <t>g__Agathobaculum</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81714.fa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4.02608777311964e-07</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9964764131359134</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.003356808508339486</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0001656702494370201</v>
-      </c>
-      <c r="F5" t="n">
-        <v>7.009479745959462e-07</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4.549558367718013e-09</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.9964764131359134</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>g__Agathobaculum</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>g__Agathobaculum</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81784.fa</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>6.756873199756367e-07</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1599001353544064</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.810584328760709</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0277929199823798</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.442586241818242e-07</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.001721795956560709</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.810584328760709</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>g__Butyricicoccus</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>g__Butyricicoccus</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/f__Butyricicoccaceae.xlsx
+++ b/outputs-HGR-r202/f__Butyricicoccaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -638,6 +638,82 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT83946.fa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.316027263077244e-06</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.03462594081504803</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.965276934236639</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.34803520392526e-05</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.835953116718361e-06</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.049261589371985e-05</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.965276934236639</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>g__Butyricicoccus</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>g__Butyricicoccus</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT86514.fa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7.738356025866792e-07</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.02302032302065453</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.976961095275208</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.605700197501274e-05</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.450988684748653e-08</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.656356673030324e-06</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.976961095275208</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>g__Butyricicoccus</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>g__Butyricicoccus</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
